--- a/input/mappings/scaling/Taiwan_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Taiwan_scaling_mapping.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23820" windowHeight="9855"/>
+    <workbookView xWindow="7980" yWindow="3180" windowWidth="23820" windowHeight="9860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
     <sheet name="year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="196">
   <si>
     <t>inv_sector</t>
   </si>
@@ -117,15 +122,9 @@
     <t>Non-road transportation_Rails</t>
   </si>
   <si>
-    <t>shipping</t>
-  </si>
-  <si>
     <t>on-road transportation</t>
   </si>
   <si>
-    <t>non-road transportation</t>
-  </si>
-  <si>
     <t>waste-incineration</t>
   </si>
   <si>
@@ -150,9 +149,6 @@
     <t>Non-road transportation_Agricultural machinery</t>
   </si>
   <si>
-    <t xml:space="preserve">aviation </t>
-  </si>
-  <si>
     <t>Aviation</t>
   </si>
   <si>
@@ -165,12 +161,6 @@
     <t xml:space="preserve">Industry_Oil refinery </t>
   </si>
   <si>
-    <t>non_metalic_minerals</t>
-  </si>
-  <si>
-    <t>metal_production</t>
-  </si>
-  <si>
     <t>Industry_Metal products</t>
   </si>
   <si>
@@ -198,9 +188,6 @@
     <t>Industry_Leather, fur and related products</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
     <t>Industry_Electricity</t>
   </si>
   <si>
@@ -234,9 +221,6 @@
     <t>Manufacturing_Machineryand equipments</t>
   </si>
   <si>
-    <t>chemical-industry</t>
-  </si>
-  <si>
     <t>Manufacturing_Medicine and chemical products for medical purposes</t>
   </si>
   <si>
@@ -531,9 +515,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>ARG</t>
-  </si>
-  <si>
     <t>3E_Enteric-fermentation</t>
   </si>
   <si>
@@ -577,13 +558,64 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Don't scale shipping,calculated consistently globally only</t>
+  </si>
+  <si>
+    <t>1B1_Fugitive-solid-fuels</t>
+  </si>
+  <si>
+    <t>1B2_Fugitive-petr-and-gas</t>
+  </si>
+  <si>
+    <t>1B2d_Fugitive-other-energy</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>industry_metals_mines</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>linear_1</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>twn</t>
+  </si>
+  <si>
+    <t>Inventory data is missing some years, so revert to default by 2000</t>
+  </si>
+  <si>
+    <t>1A1a_Heat-production</t>
+  </si>
+  <si>
+    <t>Is very large, assume is actually industry (scaling works out well, comparable to REAS)</t>
+  </si>
+  <si>
+    <t>rail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +758,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1024,7 +1084,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1083,6 +1143,80 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1147,8 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
@@ -1175,9 +1307,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="44"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="132">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="46"/>
     <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
@@ -1218,11 +1352,85 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1534,20 +1742,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1557,1143 +1766,1331 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="68"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="60" customFormat="1"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="6" spans="1:5" s="41" customFormat="1">
+      <c r="A6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="89"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="32" customFormat="1">
+      <c r="A22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="31" customFormat="1">
+      <c r="A23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="28" customFormat="1">
+      <c r="A24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="B41" s="11"/>
+      <c r="C41" s="70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="11" customFormat="1" ht="15">
+      <c r="C42" s="70"/>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="11" customFormat="1" ht="15">
+      <c r="A45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="84"/>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="C48" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="70" t="s">
+      <c r="B52" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="23" customFormat="1">
+      <c r="A55" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="33" customFormat="1"/>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="56" customFormat="1" ht="15">
+      <c r="A63" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="35" customFormat="1" ht="15">
+      <c r="A64" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="48" customFormat="1" ht="15">
+      <c r="A65" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="48" customFormat="1" ht="15">
+      <c r="A66" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="48" customFormat="1" ht="15">
+      <c r="A67" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="37" customFormat="1" ht="15">
+      <c r="A68" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="45" customFormat="1" ht="15">
+      <c r="A69" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="60" customFormat="1" ht="15">
+      <c r="B70" s="87"/>
+    </row>
+    <row r="71" spans="1:3" s="19" customFormat="1"/>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="46" customFormat="1" ht="15">
+      <c r="A76" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="73" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="74" t="s">
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="85" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="72"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="82" t="s">
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="85" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15">
+      <c r="A94" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="84"/>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="38"/>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C103" s="67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15">
+      <c r="A105" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" s="67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C109" s="67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" s="60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="60" customFormat="1" ht="15">
+      <c r="B129" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C129" s="88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="60" customFormat="1" ht="15">
+      <c r="B130" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="60" customFormat="1" ht="15">
+      <c r="B131" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="C131" s="88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15">
+      <c r="A133" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" t="s">
+        <v>184</v>
+      </c>
+      <c r="C133" s="86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15">
+      <c r="B134" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15">
+      <c r="B135" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15">
+      <c r="B136" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="86"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="79" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="46" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B79" s="66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="75" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C92" s="86"/>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" s="69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" s="69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B128" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="88" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C129" s="88" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C130" s="88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C131" s="88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>180</v>
-      </c>
+      <c r="C1" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="60">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="60">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="60">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1999</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2705,59 +3102,64 @@
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="90"/>
+      <c r="G1" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input/mappings/scaling/Taiwan_scaling_mapping.xlsx
+++ b/input/mappings/scaling/Taiwan_scaling_mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="3180" windowWidth="23820" windowHeight="9860" activeTab="1"/>
+    <workbookView xWindow="19740" yWindow="4640" windowWidth="23820" windowHeight="9860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,6 @@
     <t>1A4c_Agriculture-forestry-fishing</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>2A1_Cement-production</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>rail</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1767,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1792,7 +1792,7 @@
         <v>113</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="60" customFormat="1"/>
@@ -1901,10 +1901,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2067,10 +2067,10 @@
         <v>30</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D37" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -2079,10 +2079,10 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
@@ -2090,7 +2090,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="69" t="s">
         <v>142</v>
@@ -2113,7 +2113,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -2124,7 +2124,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="11" customFormat="1" ht="15">
@@ -2144,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
@@ -2152,10 +2152,10 @@
         <v>42</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
@@ -2164,10 +2164,10 @@
       </c>
       <c r="B49" s="28"/>
       <c r="C49" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D49" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
@@ -2175,10 +2175,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
@@ -2186,7 +2186,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C52" s="67" t="s">
         <v>128</v>
@@ -2197,7 +2197,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" s="67" t="s">
         <v>129</v>
@@ -2208,7 +2208,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="23" customFormat="1">
@@ -2216,7 +2216,7 @@
         <v>88</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="33" customFormat="1"/>
@@ -2228,7 +2228,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
@@ -2345,10 +2345,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C72" s="75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
@@ -2356,10 +2356,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C73" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
@@ -2367,10 +2367,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15">
@@ -2378,10 +2378,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="46" customFormat="1" ht="15">
@@ -2389,10 +2389,10 @@
         <v>86</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
@@ -2400,7 +2400,7 @@
         <v>87</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C77" s="67" t="s">
         <v>130</v>
@@ -2411,7 +2411,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2427,7 +2427,7 @@
         <v>92</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2435,7 +2435,7 @@
         <v>96</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
@@ -2443,10 +2443,10 @@
         <v>76</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15">
@@ -2454,10 +2454,10 @@
         <v>77</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
@@ -2465,10 +2465,10 @@
         <v>78</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" s="73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15">
@@ -2476,7 +2476,7 @@
         <v>79</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C86" s="67" t="s">
         <v>133</v>
@@ -2487,7 +2487,7 @@
         <v>80</v>
       </c>
       <c r="B87" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="67" t="s">
         <v>137</v>
@@ -2498,7 +2498,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
@@ -2509,7 +2509,7 @@
         <v>97</v>
       </c>
       <c r="C90" s="85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
@@ -2520,7 +2520,7 @@
         <v>97</v>
       </c>
       <c r="C91" s="85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
@@ -2531,7 +2531,7 @@
         <v>97</v>
       </c>
       <c r="C92" s="85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
@@ -2542,7 +2542,7 @@
         <v>97</v>
       </c>
       <c r="C93" s="85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15">
@@ -2557,7 +2557,7 @@
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C96" s="67" t="s">
         <v>127</v>
@@ -2568,7 +2568,7 @@
         <v>56</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>57</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2584,7 +2584,7 @@
         <v>58</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2592,7 +2592,7 @@
         <v>60</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2600,7 +2600,7 @@
         <v>61</v>
       </c>
       <c r="B101" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2608,7 +2608,7 @@
         <v>62</v>
       </c>
       <c r="B102" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
@@ -2616,7 +2616,7 @@
         <v>63</v>
       </c>
       <c r="B103" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C103" s="67" t="s">
         <v>134</v>
@@ -2627,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C104" s="67" t="s">
         <v>135</v>
@@ -2638,7 +2638,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" s="67" t="s">
         <v>136</v>
@@ -2649,7 +2649,7 @@
         <v>81</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="67" t="s">
         <v>139</v>
@@ -2660,7 +2660,7 @@
         <v>82</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2668,7 +2668,7 @@
         <v>57</v>
       </c>
       <c r="B108" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
@@ -2676,7 +2676,7 @@
         <v>70</v>
       </c>
       <c r="B109" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C109" s="67" t="s">
         <v>140</v>
@@ -2687,7 +2687,7 @@
         <v>93</v>
       </c>
       <c r="B110" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>94</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>95</v>
       </c>
       <c r="B112" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>103</v>
       </c>
       <c r="B113" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>104</v>
       </c>
       <c r="B114" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>105</v>
       </c>
       <c r="B115" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2831,31 +2831,31 @@
         <v>125</v>
       </c>
       <c r="B128" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="60" customFormat="1" ht="15">
       <c r="B129" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C129" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="60" customFormat="1" ht="15">
       <c r="B130" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C130" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="60" customFormat="1" ht="15">
       <c r="B131" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C131" s="88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15">
@@ -2863,34 +2863,34 @@
         <v>106</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C133" s="86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15">
       <c r="B134" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C134" s="86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15">
       <c r="B135" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C135" s="86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15">
       <c r="B136" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C136" s="86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2928,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2939,30 +2939,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>171</v>
-      </c>
       <c r="G1" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>97</v>
@@ -2971,18 +2971,18 @@
         <v>2000</v>
       </c>
       <c r="D2" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="F2" s="60" t="s">
         <v>189</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>38</v>
@@ -2991,19 +2991,19 @@
         <v>2000</v>
       </c>
       <c r="D3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="F3" s="60" t="s">
         <v>189</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>190</v>
       </c>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>34</v>
@@ -3012,55 +3012,55 @@
         <v>2000</v>
       </c>
       <c r="D4" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="60" t="s">
         <v>189</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>190</v>
       </c>
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="60">
         <v>2000</v>
       </c>
       <c r="D5" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="F5" s="60" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>190</v>
       </c>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="60">
         <v>1999</v>
       </c>
       <c r="D6" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>189</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3098,7 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
@@ -3106,51 +3106,51 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="E1" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="F1" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="H1" s="87" t="s">
         <v>177</v>
-      </c>
-      <c r="H1" s="87" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" s="87"/>
     </row>
